--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/authority.menu.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/authority.menu.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/folders/lm/r14tlhyj7fncnytfwf3v8dc00000gn/T/tmp-16594-vhShYgVW7nk5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B424B4F0-E673-2145-BD45-73CEA0E939D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C215540-D5BC-8747-9CD3-F05B0252D3DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="63220" yWindow="6160" windowWidth="38400" windowHeight="17840" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="63220" yWindow="6160" windowWidth="38400" windowHeight="17840" activeTab="1" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-RULE" sheetId="2" r:id="rId1"/>
@@ -66,10 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rule.menu.definition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>uiType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -341,6 +337,10 @@
   </si>
   <si>
     <t>io.vertx.tp.rbac.ruler.HSDimNorm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule.menu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -979,8 +979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
   <dimension ref="A3:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="A7:XFD7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18"/>
@@ -1013,7 +1013,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="31"/>
       <c r="E3" s="31"/>
@@ -1031,52 +1031,52 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="G4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="L4" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1090,43 +1090,43 @@
         <v>7</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="J5" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1134,44 +1134,44 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F6" s="11">
         <v>1</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H6" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="J6" s="9" t="s">
+      <c r="K6" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="K6" s="9" t="s">
-        <v>52</v>
-      </c>
       <c r="L6" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P6" s="9"/>
     </row>
@@ -1189,8 +1189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADBA6181-C1FB-1A46-88E9-BFF81B142D2D}">
   <dimension ref="A3:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="18"/>
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>2</v>
@@ -1235,40 +1235,40 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="F4" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="G4" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="H4" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="I4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="16" t="s">
+      <c r="K4" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="L4" s="18" t="s">
         <v>62</v>
-      </c>
-      <c r="L4" s="18" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1276,58 +1276,58 @@
         <v>0</v>
       </c>
       <c r="B5" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="20" t="s">
-        <v>54</v>
-      </c>
       <c r="D5" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="F5" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="G5" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="H5" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="I5" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="J5" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="K5" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="K5" s="21" t="s">
+      <c r="L5" s="22" t="s">
         <v>71</v>
-      </c>
-      <c r="L5" s="22" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="25" t="str">
         <f>'DATA-RULE'!C6</f>
-        <v>rule.menu.definition</v>
+        <v>rule.menu</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="25" t="s">
         <v>73</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>74</v>
       </c>
       <c r="G6" s="23"/>
       <c r="H6" s="9"/>

--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/authority.menu.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/authority.menu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/folders/lm/r14tlhyj7fncnytfwf3v8dc00000gn/T/tmp-16594-vhShYgVW7nk5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C215540-D5BC-8747-9CD3-F05B0252D3DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF6B42B-5F9B-7042-BFD4-DD2EA38DA8B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="63220" yWindow="6160" windowWidth="38400" windowHeight="17840" activeTab="1" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19520" activeTab="1" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-RULE" sheetId="2" r:id="rId1"/>
@@ -1190,7 +1190,7 @@
   <dimension ref="A3:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="18"/>
